--- a/data/trans_bre/P19C09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,89%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 1,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 3,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 1,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,39; 591,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,27; 288,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,93; 78,2</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,89%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 2,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 3,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 2,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,21; 217,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,32; 320,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,42; 135,88</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,42%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 0,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 3,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 0,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,64; 64,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,01; 549,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,57; 37,12</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,59%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 4,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 2,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 2,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,3; 633,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,56; 473,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,26; 196,4</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,83%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,79%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 5,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 2,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 4,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,01; 291,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,78; 389,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,55; 564,53</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,11%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,05; 2,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 3,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,46; 1,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,32; 62,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,95; 212,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,41; 44,84</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,19%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,67%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 1,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 1,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 0,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,64; 66,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,43; 136,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,54; 30,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-12,69%</t>
+          <t>34,52%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>35,36%</t>
+          <t>-40,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-33,11%</t>
+          <t>3,88%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 2,47</t>
+          <t>-2,34; 5,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,17</t>
+          <t>-5,63; 1,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 1,03</t>
+          <t>-2,31; 2,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,32; 62,72</t>
+          <t>-40,13; 210,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,95; 212,05</t>
+          <t>-81,64; 99,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,41; 44,84</t>
+          <t>-75,16; 313,31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>-47,22%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>63,19%</t>
+          <t>691,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,67%</t>
+          <t>-55,31%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-11,36; 0,92</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 7,57</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-7,98; 0,93</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-80,43; 23,92</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-90,86; 81,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19,8%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>63,19%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-6,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-0,35; 1,44</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0,27; 1,92</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-1,05; 0,71</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>-11,64; 66,92</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>12,43; 136,76</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-32,54; 30,67</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P19C09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Edad-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,89</t>
+          <t>-1,14; 1,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,28</t>
+          <t>-1,3; 3,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,2</t>
+          <t>-3,62; 1,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-78,39; 591,13</t>
+          <t>-74,74; 699,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-45,27; 288,75</t>
+          <t>-47,22; 308,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-76,93; 78,2</t>
+          <t>-75,41; 77,09</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,26</t>
+          <t>-1,56; 2,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 3,67</t>
+          <t>-0,21; 3,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,59</t>
+          <t>-2,06; 2,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,21; 217,45</t>
+          <t>-52,78; 248,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 320,86</t>
+          <t>-18,13; 366,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,42; 135,88</t>
+          <t>-50,02; 125,76</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 0,88</t>
+          <t>-2,36; 1,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,38</t>
+          <t>-0,29; 3,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 0,71</t>
+          <t>-3,43; 0,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-73,64; 64,59</t>
+          <t>-68,77; 87,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,01; 549,94</t>
+          <t>-34,72; 547,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-72,57; 37,12</t>
+          <t>-72,42; 31,42</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 4,13</t>
+          <t>-0,44; 4,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 2,36</t>
+          <t>-0,73; 2,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,39</t>
+          <t>-1,56; 2,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,3; 633,67</t>
+          <t>-41,98; 599,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,56; 473,19</t>
+          <t>-52,75; 491,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,26; 196,4</t>
+          <t>-54,75; 190,74</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 5,57</t>
+          <t>-0,94; 5,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,73</t>
+          <t>-1,61; 2,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 4,48</t>
+          <t>-0,46; 4,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 291,71</t>
+          <t>-23,76; 287,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-64,78; 389,9</t>
+          <t>-72,04; 339,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 564,53</t>
+          <t>-36,46; 515,95</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 5,09</t>
+          <t>-2,06; 5,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 1,45</t>
+          <t>-5,3; 1,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,51</t>
+          <t>-2,34; 2,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,13; 210,22</t>
+          <t>-36,53; 199,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,64; 99,24</t>
+          <t>-81,65; 96,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,16; 313,31</t>
+          <t>-76,93; 296,54</t>
         </is>
       </c>
     </row>
@@ -1122,22 +1122,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 0,92</t>
+          <t>-9,97; 1,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,57</t>
+          <t>1,56; 7,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 0,93</t>
+          <t>-8,47; 0,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-80,43; 23,92</t>
+          <t>-78,16; 42,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-90,86; 81,69</t>
+          <t>-91,32; 66,19</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,44</t>
+          <t>-0,39; 1,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,92</t>
+          <t>0,29; 1,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,71</t>
+          <t>-1,09; 0,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 66,92</t>
+          <t>-12,32; 68,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,43; 136,76</t>
+          <t>11,85; 142,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 30,67</t>
+          <t>-32,83; 27,7</t>
         </is>
       </c>
     </row>
